--- a/biology/Botanique/Ebenus_seychellarum/Ebenus_seychellarum.xlsx
+++ b/biology/Botanique/Ebenus_seychellarum/Ebenus_seychellarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diospyros seychellarum[2] (dit localement bois sagaie) est une espèce de plantes à fleurs de la famille des Ebenaceae et du genre Diospyros. C'est un arbre endémique des Seychelles. Cette espèce rare et menacée se trouve aux îles de Félicité, Mahé, Praslin et Silhouette. Elle a été étudiée par Kuntze et Hiern au XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diospyros seychellarum (dit localement bois sagaie) est une espèce de plantes à fleurs de la famille des Ebenaceae et du genre Diospyros. C'est un arbre endémique des Seychelles. Cette espèce rare et menacée se trouve aux îles de Félicité, Mahé, Praslin et Silhouette. Elle a été étudiée par Kuntze et Hiern au XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit arbre de forêt croît sur des sols graniteux ou rocheux ouverts, souvent à côté de Pandanus locaux. Il est utilisé pour ses qualités curatives traditionnelles. Il souffre de la concurrence du bois de cannelle et du jacquier, ainsi que de la déforestation pour la culture. Toutefois certains individus se trouvent dans des parcs naturels protégés.
 </t>
